--- a/Experiments/Data.xlsx
+++ b/Experiments/Data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leo\Desktop\Thesis\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBDC805-B667-4270-BB6B-5CF01A400AAB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D667916-7016-47DF-914E-EFD49AB493EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" xr2:uid="{97D6BAB5-A1D7-48F6-AA93-3E65C34E6CD9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" activeTab="1" xr2:uid="{97D6BAB5-A1D7-48F6-AA93-3E65C34E6CD9}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Attackers" sheetId="1" r:id="rId1"/>
     <sheet name="2. Ratio" sheetId="2" r:id="rId2"/>
     <sheet name="3. Difficulty" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>Number of Attacking Nodes (ratio)</t>
   </si>
@@ -174,6 +174,42 @@
   </si>
   <si>
     <t>Std. Deviation</t>
+  </si>
+  <si>
+    <t>With synchronization</t>
+  </si>
+  <si>
+    <t>20/60</t>
+  </si>
+  <si>
+    <t>30/90</t>
+  </si>
+  <si>
+    <t>40/120</t>
+  </si>
+  <si>
+    <t>50/150</t>
+  </si>
+  <si>
+    <t>60/180</t>
+  </si>
+  <si>
+    <t>70/210</t>
+  </si>
+  <si>
+    <t>80/240</t>
+  </si>
+  <si>
+    <t>90/270</t>
+  </si>
+  <si>
+    <t>200/600</t>
+  </si>
+  <si>
+    <t>400/1200</t>
+  </si>
+  <si>
+    <t>800/2400</t>
   </si>
 </sst>
 </file>
@@ -264,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -304,6 +340,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -323,9 +368,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -644,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B114B9C9-D8FC-4D92-ABF7-302A90523AB3}">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,13 +715,13 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -687,11 +729,11 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -700,58 +742,58 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
       <c r="M5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
       <c r="Q5" s="20" t="s">
         <v>47</v>
       </c>
@@ -1595,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7790250-00DD-45A5-A6AC-CB6CBCFAC8C6}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,18 +1659,18 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1640,10 +1682,10 @@
       <c r="C4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1660,7 +1702,7 @@
         <f t="shared" ref="C5:C14" si="1" xml:space="preserve"> _xlfn.STDEV.S(D5:H5)</f>
         <v>2.5495097567963922</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="22">
         <v>13</v>
       </c>
       <c r="E5" s="14">
@@ -2128,25 +2170,707 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="13">
+        <f t="shared" ref="B22:B31" si="2" xml:space="preserve"> AVERAGE(D22:H22)</f>
+        <v>16.2</v>
+      </c>
+      <c r="C22" s="13">
+        <f t="shared" ref="C22:C31" si="3" xml:space="preserve"> _xlfn.STDEV.S(D22:H22)</f>
+        <v>3.4928498393145944</v>
+      </c>
+      <c r="D22" s="22">
+        <v>16</v>
+      </c>
+      <c r="E22" s="14">
+        <v>14</v>
+      </c>
+      <c r="F22" s="14">
+        <v>18</v>
+      </c>
+      <c r="G22" s="14">
+        <v>12</v>
+      </c>
+      <c r="H22" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="13">
+        <f t="shared" si="2"/>
+        <v>16.8</v>
+      </c>
+      <c r="C23" s="13">
+        <f t="shared" si="3"/>
+        <v>2.5884358211089546</v>
+      </c>
+      <c r="D23" s="14">
+        <v>19</v>
+      </c>
+      <c r="E23" s="14">
+        <v>14</v>
+      </c>
+      <c r="F23" s="14">
+        <v>19</v>
+      </c>
+      <c r="G23" s="14">
+        <v>18</v>
+      </c>
+      <c r="H23" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="13">
+        <f t="shared" si="2"/>
+        <v>13.4</v>
+      </c>
+      <c r="C24" s="13">
+        <f t="shared" si="3"/>
+        <v>3.5071355833500379</v>
+      </c>
+      <c r="D24" s="14">
+        <v>11</v>
+      </c>
+      <c r="E24" s="14">
+        <v>14</v>
+      </c>
+      <c r="F24" s="14">
+        <v>19</v>
+      </c>
+      <c r="G24" s="14">
+        <v>13</v>
+      </c>
+      <c r="H24" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="13">
+        <f t="shared" si="2"/>
+        <v>14.6</v>
+      </c>
+      <c r="C25" s="13">
+        <f t="shared" si="3"/>
+        <v>1.6733200530681545</v>
+      </c>
+      <c r="D25" s="14">
+        <v>16</v>
+      </c>
+      <c r="E25" s="14">
+        <v>14</v>
+      </c>
+      <c r="F25" s="14">
+        <v>12</v>
+      </c>
+      <c r="G25" s="14">
+        <v>16</v>
+      </c>
+      <c r="H25" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="13">
+        <f t="shared" si="2"/>
+        <v>11.6</v>
+      </c>
+      <c r="C26" s="13">
+        <f t="shared" si="3"/>
+        <v>3.9115214431215906</v>
+      </c>
+      <c r="D26" s="14">
+        <v>14</v>
+      </c>
+      <c r="E26" s="14">
+        <v>11</v>
+      </c>
+      <c r="F26" s="14">
+        <v>8</v>
+      </c>
+      <c r="G26" s="14">
+        <v>17</v>
+      </c>
+      <c r="H26" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="13">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="C27" s="13">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D27" s="14">
+        <v>11</v>
+      </c>
+      <c r="E27" s="14">
+        <v>15</v>
+      </c>
+      <c r="F27" s="14">
+        <v>13</v>
+      </c>
+      <c r="G27" s="14">
+        <v>15</v>
+      </c>
+      <c r="H27" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="13">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C28" s="13">
+        <f t="shared" si="3"/>
+        <v>2.7386127875258306</v>
+      </c>
+      <c r="D28" s="14">
+        <v>17</v>
+      </c>
+      <c r="E28" s="14">
+        <v>15</v>
+      </c>
+      <c r="F28" s="14">
+        <v>18</v>
+      </c>
+      <c r="G28" s="14">
+        <v>11</v>
+      </c>
+      <c r="H28" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="13">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
+      <c r="C29" s="13">
+        <f t="shared" si="3"/>
+        <v>3.7148351242013433</v>
+      </c>
+      <c r="D29" s="14">
+        <v>16</v>
+      </c>
+      <c r="E29" s="14">
+        <v>13</v>
+      </c>
+      <c r="F29" s="14">
+        <v>19</v>
+      </c>
+      <c r="G29" s="14">
+        <v>9</v>
+      </c>
+      <c r="H29" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="13">
+        <f t="shared" si="2"/>
+        <v>13.8</v>
+      </c>
+      <c r="C30" s="13">
+        <f t="shared" si="3"/>
+        <v>1.9235384061671315</v>
+      </c>
+      <c r="D30" s="14">
+        <v>14</v>
+      </c>
+      <c r="E30" s="14">
+        <v>16</v>
+      </c>
+      <c r="F30" s="14">
+        <v>11</v>
+      </c>
+      <c r="G30" s="14">
+        <v>13</v>
+      </c>
+      <c r="H30" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="13">
+        <f t="shared" si="2"/>
+        <v>14.8</v>
+      </c>
+      <c r="C31" s="13">
+        <f t="shared" si="3"/>
+        <v>1.6431676725154984</v>
+      </c>
+      <c r="D31" s="14">
+        <v>16</v>
+      </c>
+      <c r="E31" s="14">
+        <v>14</v>
+      </c>
+      <c r="F31" s="14">
+        <v>13</v>
+      </c>
+      <c r="G31" s="14">
+        <v>14</v>
+      </c>
+      <c r="H31" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="13">
+        <f xml:space="preserve"> AVERAGE(D32:Q32)</f>
+        <v>12.2</v>
+      </c>
+      <c r="C32" s="13">
+        <f xml:space="preserve"> _xlfn.STDEV.S(D32:Q32)</f>
+        <v>2.4899799195977441</v>
+      </c>
+      <c r="D32" s="14">
+        <v>9</v>
+      </c>
+      <c r="E32" s="14">
+        <v>14</v>
+      </c>
+      <c r="F32" s="14">
+        <v>14</v>
+      </c>
+      <c r="G32" s="14">
+        <v>14</v>
+      </c>
+      <c r="H32" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="13">
+        <f xml:space="preserve"> AVERAGE(D33:Q33)</f>
+        <v>12.8</v>
+      </c>
+      <c r="C33" s="13">
+        <f xml:space="preserve"> _xlfn.STDEV.S(D33:Q33)</f>
+        <v>4.0865633483405084</v>
+      </c>
+      <c r="D33" s="14">
+        <v>12</v>
+      </c>
+      <c r="E33" s="14">
+        <v>18</v>
+      </c>
+      <c r="F33" s="14">
+        <v>7</v>
+      </c>
+      <c r="G33" s="14">
+        <v>15</v>
+      </c>
+      <c r="H33" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="13">
+        <f t="shared" ref="B34:B43" si="4" xml:space="preserve"> AVERAGE(D34:H34)</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C34" s="13">
+        <f t="shared" ref="C34:C43" si="5" xml:space="preserve"> _xlfn.STDEV.S(D34:H34)</f>
+        <v>3.6469165057620954</v>
+      </c>
+      <c r="D34" s="1">
+        <v>21</v>
+      </c>
+      <c r="E34" s="1">
+        <v>18</v>
+      </c>
+      <c r="F34" s="1">
+        <v>16</v>
+      </c>
+      <c r="G34" s="1">
+        <v>16</v>
+      </c>
+      <c r="H34" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="13">
+        <f t="shared" si="4"/>
+        <v>13.4</v>
+      </c>
+      <c r="C35" s="13">
+        <f t="shared" si="5"/>
+        <v>4.5055521304275254</v>
+      </c>
+      <c r="D35" s="1">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1">
+        <v>21</v>
+      </c>
+      <c r="G35" s="1">
+        <v>12</v>
+      </c>
+      <c r="H35" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="13">
+        <f t="shared" si="4"/>
+        <v>10.8</v>
+      </c>
+      <c r="C36" s="13">
+        <f t="shared" si="5"/>
+        <v>3.768288736283353</v>
+      </c>
+      <c r="D36" s="1">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1">
+        <v>7</v>
+      </c>
+      <c r="H36" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="13">
+        <f t="shared" si="4"/>
+        <v>14.6</v>
+      </c>
+      <c r="C37" s="13">
+        <f t="shared" si="5"/>
+        <v>6.0249481325568279</v>
+      </c>
+      <c r="D37" s="1">
+        <v>16</v>
+      </c>
+      <c r="E37" s="1">
+        <v>20</v>
+      </c>
+      <c r="F37" s="1">
+        <v>13</v>
+      </c>
+      <c r="G37" s="1">
+        <v>19</v>
+      </c>
+      <c r="H37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="13">
+        <f t="shared" si="4"/>
+        <v>14.8</v>
+      </c>
+      <c r="C38" s="13">
+        <f t="shared" si="5"/>
+        <v>2.949576240750523</v>
+      </c>
+      <c r="D38" s="1">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1">
+        <v>15</v>
+      </c>
+      <c r="F38" s="1">
+        <v>19</v>
+      </c>
+      <c r="G38" s="1">
+        <v>16</v>
+      </c>
+      <c r="H38" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="13">
+        <f t="shared" si="4"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C39" s="13">
+        <f t="shared" si="5"/>
+        <v>5.8566201857385298</v>
+      </c>
+      <c r="D39" s="1">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1">
+        <v>26</v>
+      </c>
+      <c r="G39" s="1">
+        <v>12</v>
+      </c>
+      <c r="H39" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="13">
+        <f t="shared" si="4"/>
+        <v>12.4</v>
+      </c>
+      <c r="C40" s="13">
+        <f t="shared" si="5"/>
+        <v>0.54772255750516619</v>
+      </c>
+      <c r="D40" s="1">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1">
+        <v>12</v>
+      </c>
+      <c r="G40" s="1">
+        <v>13</v>
+      </c>
+      <c r="H40" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="13">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="C41" s="13">
+        <f t="shared" si="5"/>
+        <v>1.8708286933869707</v>
+      </c>
+      <c r="D41" s="1">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1">
+        <v>14</v>
+      </c>
+      <c r="F41" s="1">
+        <v>13</v>
+      </c>
+      <c r="G41" s="1">
+        <v>13</v>
+      </c>
+      <c r="H41" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="13">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="C42" s="13">
+        <f t="shared" si="5"/>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="D42" s="1">
+        <v>16</v>
+      </c>
+      <c r="E42" s="1">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1">
+        <v>12</v>
+      </c>
+      <c r="G42" s="1">
+        <v>18</v>
+      </c>
+      <c r="H42" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="13">
+        <f t="shared" si="4"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C43" s="13">
+        <f t="shared" si="5"/>
+        <v>2.9664793948382671</v>
+      </c>
+      <c r="D43" s="1">
+        <v>19</v>
+      </c>
+      <c r="E43" s="1">
+        <v>14</v>
+      </c>
+      <c r="F43" s="1">
+        <v>15</v>
+      </c>
+      <c r="G43" s="1">
+        <v>21</v>
+      </c>
+      <c r="H43" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="13">
+        <f xml:space="preserve"> AVERAGE(D44:Q44)</f>
+        <v>12</v>
+      </c>
+      <c r="C44" s="13">
+        <f xml:space="preserve"> _xlfn.STDEV.S(D44:Q44)</f>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="D44" s="1">
+        <v>9</v>
+      </c>
+      <c r="E44" s="1">
+        <v>17</v>
+      </c>
+      <c r="F44" s="1">
+        <v>13</v>
+      </c>
+      <c r="G44" s="1">
+        <v>11</v>
+      </c>
+      <c r="H44" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:D3"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A9:A14" twoDigitTextYear="1"/>
+    <ignoredError sqref="A9:A14 A26:A31" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1EE6E0-6F19-44DC-87EF-C669CB5D5EF9}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2165,18 +2889,18 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2188,10 +2912,10 @@
       <c r="C4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="3"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -2615,10 +3339,343 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
     </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="13">
+        <f t="shared" ref="B21:B28" si="2" xml:space="preserve"> AVERAGE(D21:K21)</f>
+        <v>21.75</v>
+      </c>
+      <c r="C21" s="13">
+        <f t="shared" ref="C21:C28" si="3" xml:space="preserve"> _xlfn.STDEV.S(D21:K21)</f>
+        <v>4.1317585325655921</v>
+      </c>
+      <c r="D21" s="14">
+        <v>19</v>
+      </c>
+      <c r="E21" s="14">
+        <v>20</v>
+      </c>
+      <c r="F21" s="14">
+        <v>21</v>
+      </c>
+      <c r="G21" s="14">
+        <v>27</v>
+      </c>
+      <c r="H21" s="14">
+        <v>28</v>
+      </c>
+      <c r="I21" s="14">
+        <v>24</v>
+      </c>
+      <c r="J21" s="14">
+        <v>17</v>
+      </c>
+      <c r="K21" s="14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="13">
+        <f t="shared" si="2"/>
+        <v>15.5</v>
+      </c>
+      <c r="C22" s="13">
+        <f t="shared" si="3"/>
+        <v>2.5634797778466227</v>
+      </c>
+      <c r="D22" s="14">
+        <v>13</v>
+      </c>
+      <c r="E22" s="14">
+        <v>16</v>
+      </c>
+      <c r="F22" s="14">
+        <v>12</v>
+      </c>
+      <c r="G22" s="14">
+        <v>19</v>
+      </c>
+      <c r="H22" s="14">
+        <v>16</v>
+      </c>
+      <c r="I22" s="14">
+        <v>19</v>
+      </c>
+      <c r="J22" s="14">
+        <v>14</v>
+      </c>
+      <c r="K22" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="13">
+        <f t="shared" si="2"/>
+        <v>15.25</v>
+      </c>
+      <c r="C23" s="13">
+        <f t="shared" si="3"/>
+        <v>2.712405363721075</v>
+      </c>
+      <c r="D23" s="14">
+        <v>16</v>
+      </c>
+      <c r="E23" s="14">
+        <v>17</v>
+      </c>
+      <c r="F23" s="14">
+        <v>11</v>
+      </c>
+      <c r="G23" s="14">
+        <v>20</v>
+      </c>
+      <c r="H23" s="14">
+        <v>13</v>
+      </c>
+      <c r="I23" s="14">
+        <v>15</v>
+      </c>
+      <c r="J23" s="14">
+        <v>16</v>
+      </c>
+      <c r="K23" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="13">
+        <f t="shared" si="2"/>
+        <v>14.125</v>
+      </c>
+      <c r="C24" s="13">
+        <f t="shared" si="3"/>
+        <v>4.6117087009976183</v>
+      </c>
+      <c r="D24" s="14">
+        <v>14</v>
+      </c>
+      <c r="E24" s="14">
+        <v>18</v>
+      </c>
+      <c r="F24" s="14">
+        <v>9</v>
+      </c>
+      <c r="G24" s="14">
+        <v>11</v>
+      </c>
+      <c r="H24" s="14">
+        <v>10</v>
+      </c>
+      <c r="I24" s="14">
+        <v>15</v>
+      </c>
+      <c r="J24" s="14">
+        <v>23</v>
+      </c>
+      <c r="K24" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="13">
+        <f t="shared" si="2"/>
+        <v>14.25</v>
+      </c>
+      <c r="C25" s="13">
+        <f t="shared" si="3"/>
+        <v>3.2841611235921855</v>
+      </c>
+      <c r="D25" s="14">
+        <v>12</v>
+      </c>
+      <c r="E25" s="14">
+        <v>10</v>
+      </c>
+      <c r="F25" s="14">
+        <v>15</v>
+      </c>
+      <c r="G25" s="14">
+        <v>19</v>
+      </c>
+      <c r="H25" s="14">
+        <v>12</v>
+      </c>
+      <c r="I25" s="14">
+        <v>13</v>
+      </c>
+      <c r="J25" s="14">
+        <v>14</v>
+      </c>
+      <c r="K25" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="13">
+        <f t="shared" si="2"/>
+        <v>13.125</v>
+      </c>
+      <c r="C26" s="13">
+        <f t="shared" si="3"/>
+        <v>3.6815175442433286</v>
+      </c>
+      <c r="D26" s="14">
+        <v>19</v>
+      </c>
+      <c r="E26" s="14">
+        <v>15</v>
+      </c>
+      <c r="F26" s="14">
+        <v>13</v>
+      </c>
+      <c r="G26" s="14">
+        <v>9</v>
+      </c>
+      <c r="H26" s="14">
+        <v>14</v>
+      </c>
+      <c r="I26" s="14">
+        <v>11</v>
+      </c>
+      <c r="J26" s="14">
+        <v>8</v>
+      </c>
+      <c r="K26" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="13">
+        <f t="shared" si="2"/>
+        <v>13.875</v>
+      </c>
+      <c r="C27" s="13">
+        <f t="shared" si="3"/>
+        <v>3.3567628964311944</v>
+      </c>
+      <c r="D27" s="14">
+        <v>15</v>
+      </c>
+      <c r="E27" s="14">
+        <v>13</v>
+      </c>
+      <c r="F27" s="14">
+        <v>17</v>
+      </c>
+      <c r="G27" s="14">
+        <v>13</v>
+      </c>
+      <c r="H27" s="14">
+        <v>10</v>
+      </c>
+      <c r="I27" s="14">
+        <v>9</v>
+      </c>
+      <c r="J27" s="14">
+        <v>15</v>
+      </c>
+      <c r="K27" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="13">
+        <f t="shared" si="2"/>
+        <v>14.625</v>
+      </c>
+      <c r="C28" s="13">
+        <f t="shared" si="3"/>
+        <v>4.0686080455816125</v>
+      </c>
+      <c r="D28" s="14">
+        <v>12</v>
+      </c>
+      <c r="E28" s="14">
+        <v>16</v>
+      </c>
+      <c r="F28" s="14">
+        <v>8</v>
+      </c>
+      <c r="G28" s="14">
+        <v>14</v>
+      </c>
+      <c r="H28" s="14">
+        <v>19</v>
+      </c>
+      <c r="I28" s="14">
+        <v>19</v>
+      </c>
+      <c r="J28" s="14">
+        <v>18</v>
+      </c>
+      <c r="K28" s="14">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <ignoredErrors>
